--- a/Project.Web/Uploads/Import/Lead/Sample/Lead_Sample.xlsx
+++ b/Project.Web/Uploads/Import/Lead/Sample/Lead_Sample.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Lead_ID</t>
   </si>
@@ -60,15 +60,6 @@
     <t>Loc Add 2</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
     <t>Loc Phone No</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
     <t>M Add 2</t>
   </si>
   <si>
-    <t xml:space="preserve">City </t>
-  </si>
-  <si>
     <t>F Name</t>
   </si>
   <si>
@@ -231,17 +219,48 @@
     <t>Assign To Id</t>
   </si>
   <si>
-    <t>Lead Disposition Id</t>
-  </si>
-  <si>
-    <t>Lead Source Id</t>
+    <t>test name</t>
+  </si>
+  <si>
+    <t>Loc City</t>
+  </si>
+  <si>
+    <t>Loc State</t>
+  </si>
+  <si>
+    <t>Loc Zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M City </t>
+  </si>
+  <si>
+    <t>M State</t>
+  </si>
+  <si>
+    <t>M Zip</t>
+  </si>
+  <si>
+    <t>R City</t>
+  </si>
+  <si>
+    <t>R State</t>
+  </si>
+  <si>
+    <t>R Zip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,8 +289,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -281,6 +301,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -329,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,9 +385,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,6 +437,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,303 +630,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BZ1"/>
+  <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
-      <selection activeCell="BU11" sqref="BU11"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" customWidth="1"/>
-    <col min="29" max="29" width="11.28515625" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.140625" customWidth="1"/>
-    <col min="36" max="36" width="14.140625" customWidth="1"/>
-    <col min="37" max="37" width="15.7109375" customWidth="1"/>
-    <col min="38" max="38" width="16.42578125" customWidth="1"/>
-    <col min="39" max="39" width="12.7109375" customWidth="1"/>
-    <col min="41" max="41" width="18.28515625" customWidth="1"/>
-    <col min="42" max="42" width="12.7109375" customWidth="1"/>
-    <col min="43" max="43" width="11.7109375" customWidth="1"/>
-    <col min="44" max="44" width="17.140625" customWidth="1"/>
-    <col min="45" max="45" width="11.7109375" customWidth="1"/>
-    <col min="49" max="49" width="12.5703125" customWidth="1"/>
-    <col min="51" max="51" width="13.42578125" customWidth="1"/>
-    <col min="52" max="52" width="11.5703125" customWidth="1"/>
-    <col min="53" max="53" width="19.5703125" customWidth="1"/>
-    <col min="54" max="54" width="19.140625" customWidth="1"/>
-    <col min="55" max="55" width="20.85546875" customWidth="1"/>
-    <col min="56" max="56" width="16" customWidth="1"/>
-    <col min="57" max="57" width="15.42578125" customWidth="1"/>
-    <col min="58" max="58" width="20.5703125" customWidth="1"/>
-    <col min="59" max="59" width="19.28515625" customWidth="1"/>
-    <col min="60" max="60" width="22.5703125" customWidth="1"/>
-    <col min="61" max="61" width="20.7109375" customWidth="1"/>
-    <col min="62" max="62" width="23.5703125" customWidth="1"/>
-    <col min="63" max="63" width="23.140625" customWidth="1"/>
-    <col min="64" max="64" width="14.42578125" customWidth="1"/>
-    <col min="65" max="65" width="17.7109375" customWidth="1"/>
-    <col min="66" max="66" width="14.140625" customWidth="1"/>
-    <col min="67" max="67" width="15.140625" customWidth="1"/>
-    <col min="68" max="68" width="17.5703125" customWidth="1"/>
-    <col min="69" max="69" width="15.140625" customWidth="1"/>
-    <col min="70" max="70" width="17.42578125" customWidth="1"/>
-    <col min="71" max="71" width="17.5703125" customWidth="1"/>
-    <col min="72" max="72" width="14" customWidth="1"/>
-    <col min="73" max="73" width="13.85546875" customWidth="1"/>
-    <col min="74" max="74" width="15" customWidth="1"/>
-    <col min="75" max="75" width="13.7109375" customWidth="1"/>
-    <col min="76" max="76" width="14" customWidth="1"/>
-    <col min="77" max="77" width="25.140625" customWidth="1"/>
-    <col min="78" max="78" width="15.42578125" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" style="1" customWidth="1"/>
+    <col min="14" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="15.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="18.44140625" style="1" customWidth="1"/>
+    <col min="21" max="27" width="8.88671875" style="1"/>
+    <col min="28" max="28" width="13.33203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.109375" style="1" customWidth="1"/>
+    <col min="32" max="35" width="8.88671875" style="1"/>
+    <col min="36" max="36" width="14.109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="16.44140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.6640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="8.88671875" style="1"/>
+    <col min="41" max="41" width="18.33203125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="12.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="11.6640625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="17.109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="11.6640625" style="1" customWidth="1"/>
+    <col min="46" max="48" width="8.88671875" style="1"/>
+    <col min="49" max="49" width="12.5546875" style="1" customWidth="1"/>
+    <col min="50" max="50" width="8.88671875" style="1"/>
+    <col min="51" max="51" width="13.44140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="11.5546875" style="1" customWidth="1"/>
+    <col min="53" max="53" width="19.5546875" style="1" customWidth="1"/>
+    <col min="54" max="54" width="19.109375" style="1" customWidth="1"/>
+    <col min="55" max="55" width="20.88671875" style="1" customWidth="1"/>
+    <col min="56" max="56" width="16" style="1" customWidth="1"/>
+    <col min="57" max="57" width="15.44140625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="20.5546875" style="1" customWidth="1"/>
+    <col min="59" max="59" width="19.33203125" style="1" customWidth="1"/>
+    <col min="60" max="60" width="22.5546875" style="1" customWidth="1"/>
+    <col min="61" max="61" width="20.6640625" style="1" customWidth="1"/>
+    <col min="62" max="62" width="23.5546875" style="1" customWidth="1"/>
+    <col min="63" max="63" width="23.109375" style="1" customWidth="1"/>
+    <col min="64" max="64" width="14.44140625" style="1" customWidth="1"/>
+    <col min="65" max="65" width="17.6640625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="14.109375" style="1" customWidth="1"/>
+    <col min="67" max="67" width="15.109375" style="1" customWidth="1"/>
+    <col min="68" max="68" width="17.5546875" style="1" customWidth="1"/>
+    <col min="69" max="69" width="15.109375" style="1" customWidth="1"/>
+    <col min="70" max="70" width="17.44140625" style="1" customWidth="1"/>
+    <col min="71" max="71" width="17.5546875" style="1" customWidth="1"/>
+    <col min="72" max="72" width="14" style="1" customWidth="1"/>
+    <col min="73" max="73" width="13.88671875" style="1" customWidth="1"/>
+    <col min="74" max="74" width="15" style="1" customWidth="1"/>
+    <col min="75" max="75" width="13.6640625" style="1" customWidth="1"/>
+    <col min="76" max="76" width="14" style="1" customWidth="1"/>
+    <col min="77" max="77" width="25.109375" style="1" customWidth="1"/>
+    <col min="78" max="78" width="15.44140625" style="1" customWidth="1"/>
+    <col min="79" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BU1" t="s">
+    </row>
+    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BV1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>72</v>
+      <c r="D2" s="1">
+        <v>7845124578</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +952,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -895,7 +964,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
